--- a/luận văn/a.xlsx
+++ b/luận văn/a.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3F74FD-68A0-45EC-A288-0F0AE97E6DD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B572B99A-B5B2-4A5B-AB58-81C884B310D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="my_output_file" localSheetId="0">Sheet1!$B$2:$C$49</definedName>
+    <definedName name="my_output_file" localSheetId="0">Sheet1!$B$3:$C$50</definedName>
     <definedName name="my_output_file2" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="my_output_file2_1" localSheetId="0">Sheet1!$D$2:$D$49</definedName>
+    <definedName name="my_output_file2_1" localSheetId="0">Sheet1!$D$3:$D$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Trọng số nhiệt độ</t>
   </si>
@@ -72,6 +77,45 @@
   </si>
   <si>
     <t>Giờ</t>
+  </si>
+  <si>
+    <t>Tổng trọng số</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>sunlight</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>tem factor</t>
+  </si>
+  <si>
+    <t>hum factor</t>
+  </si>
+  <si>
+    <t>sum factor</t>
+  </si>
+  <si>
+    <t>sun factor</t>
+  </si>
+  <si>
+    <t>Trọng số ánh sáng</t>
   </si>
 </sst>
 </file>
@@ -398,25 +442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -434,1993 +478,2076 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.124297104775905</v>
-      </c>
-      <c r="E2" s="1">
-        <f>IF(D2&lt;0,0,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(((0.4*I2)+(0.6*J2))&gt;6,"yes","no")</f>
-        <v>no</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G49" si="0">IF(K2=0,"trời tối",IF(K2=1,"nắng nhẹ",IF(K2=2,"trời nắng","nắng gắt")))</f>
-        <v>trời tối</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f>IF(B2&gt;40,2,IF(AND(35&lt;B2,B2&lt;=40),2.5,IF(AND(32&lt;B2,B2&lt;=35),3,IF(AND(30&lt;B2,B2&lt;=32),4,IF(AND(26&lt;B2,B2&lt;=30),5,IF(AND(24&lt;B2,B2&lt;=26),4,IF(AND(18&lt;B2,B2&lt;=24),5,IF(AND(13&lt;B2,B2&lt;=18),3,IF(AND(8&lt;B2,B2&lt;=13),2,IF(AND(2&lt;B2,B2&lt;=8),2,1))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <f>IF(C2&lt;40,0.5,IF(AND(40&lt;C2,C2&lt;=50),1,IF(AND(50&lt;C2,C2&lt;=55),1.5,IF(AND(55&lt;C2,C2&lt;=60),2,IF(AND(60&lt;C2,C2&lt;=65),2.5,IF(AND(65&lt;C2,C2&lt;=70),3,IF(AND(70&lt;C2,C2&lt;=75),3.5,IF(AND(75&lt;C2,C2&lt;=80),4,IF(AND(80&lt;C2,C2&lt;=85),5,IF(AND(85&lt;C2,C2&lt;=90),6,7))))))))))</f>
-        <v>5</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K49" si="1">IF(D2&lt;50,0,IF(AND(50&lt;=D2,D2&lt;250),1,IF(AND(250&lt;=D2,D2&lt;500),2,3)))</f>
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="C3" s="1">
-        <v>83.1</v>
+        <v>82.8</v>
       </c>
       <c r="D3" s="1">
-        <v>-2.46878266334533E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E49" si="2">IF(D3&lt;0,0,D3)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(((0.4*H3)+(0.6*I3))&gt;6,"yes","no")</f>
+        <v>no</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F49" si="3">IF(((0.4*I3)+(0.6*J3))&gt;6,"yes","no")</f>
-        <v>no</v>
+        <f t="shared" ref="F3:F50" si="0">IF(K3=0,"trời tối",IF(K3=1,"nắng nhẹ",IF(K3=2,"trời nắng","nắng gắt")))</f>
+        <v>trời tối</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" ref="G3:G50" si="1">IF(J3&gt;=6,"50%",IF(AND(6&gt;J3,J3&gt;5),"75%","100%"))</f>
+        <v>100%</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <f t="shared" ref="H3:H50" si="2">IF(B3&gt;40,2,IF(AND(35&lt;B3,B3&lt;=40),2.5,IF(AND(32&lt;B3,B3&lt;=35),3,IF(AND(30&lt;B3,B3&lt;=32),4,IF(AND(26&lt;B3,B3&lt;=30),5,IF(AND(24&lt;B3,B3&lt;=26),4,IF(AND(18&lt;B3,B3&lt;=24),5,IF(AND(13&lt;B3,B3&lt;=18),3,IF(AND(8&lt;B3,B3&lt;=13),2,IF(AND(2&lt;B3,B3&lt;=8),2,1))))))))))</f>
+        <v>4</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I49" si="4">IF(B3&gt;40,2,IF(AND(35&lt;B3,B3&lt;=40),2.5,IF(AND(32&lt;B3,B3&lt;=35),3,IF(AND(30&lt;B3,B3&lt;=32),4,IF(AND(26&lt;B3,B3&lt;=30),5,IF(AND(24&lt;B3,B3&lt;=26),4,IF(AND(18&lt;B3,B3&lt;=24),5,IF(AND(13&lt;B3,B3&lt;=18),3,IF(AND(8&lt;B3,B3&lt;=13),2,IF(AND(2&lt;B3,B3&lt;=8),2,1))))))))))</f>
-        <v>4</v>
+        <f t="shared" ref="I3:I50" si="3">IF(C3&lt;40,0.5,IF(AND(40&lt;C3,C3&lt;=50),1,IF(AND(50&lt;C3,C3&lt;=55),1.5,IF(AND(55&lt;C3,C3&lt;=60),2,IF(AND(60&lt;C3,C3&lt;=65),2.5,IF(AND(65&lt;C3,C3&lt;=70),3,IF(AND(70&lt;C3,C3&lt;=75),3.5,IF(AND(75&lt;C3,C3&lt;=80),4,IF(AND(80&lt;C3,C3&lt;=85),5,IF(AND(85&lt;C3,C3&lt;=90),6,7))))))))))</f>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J49" si="5">IF(C3&lt;40,0.5,IF(AND(40&lt;C3,C3&lt;=50),1,IF(AND(50&lt;C3,C3&lt;=55),1.5,IF(AND(55&lt;C3,C3&lt;=60),2,IF(AND(60&lt;C3,C3&lt;=65),2.5,IF(AND(65&lt;C3,C3&lt;=70),3,IF(AND(70&lt;C3,C3&lt;=75),3.5,IF(AND(75&lt;C3,C3&lt;=80),4,IF(AND(80&lt;C3,C3&lt;=85),5,IF(AND(85&lt;C3,C3&lt;=90),6,7))))))))))</f>
-        <v>5</v>
+        <f t="shared" ref="J3:J50" si="4">(0.4*H3)+(0.6*I3)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K3:K50" si="5">IF(D3&lt;50,0,IF(AND(50&lt;=D3,D3&lt;250),1,IF(AND(250&lt;=D3,D3&lt;500),2,3)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="C4" s="1">
-        <v>86.5</v>
+        <v>83.1</v>
       </c>
       <c r="D4" s="1">
-        <v>1.5948249101638701</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5948249101638701</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E50" si="6">IF(((0.4*H4)+(0.6*I4))&gt;6,"yes","no")</f>
+        <v>no</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>75%</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>89.9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.3559503555297798</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3559503555297798</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>5.1999999999999993</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="C6" s="1">
-        <v>90.5</v>
+        <v>89.9</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6473026275634</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>14.6473026275634</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>75%</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>5.6</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C7" s="1">
-        <v>91.7</v>
+        <v>90.5</v>
       </c>
       <c r="D7" s="1">
-        <v>25.78609085083</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>25.78609085083</v>
+        <v>14.6473026275634</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yes</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>yes</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>50%</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>6.2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25.78609085083</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>yes</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>50%</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>76.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>79.767105102539006</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>79.767105102539006</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
       <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6.2</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
       <c r="C9" s="1">
-        <v>75.2</v>
+        <v>76.5</v>
       </c>
       <c r="D9" s="1">
-        <v>130.39689636230401</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>130.39689636230401</v>
+        <v>79.767105102539006</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>28</v>
+        <v>26.2</v>
       </c>
       <c r="C10" s="1">
-        <v>64.2</v>
+        <v>75.2</v>
       </c>
       <c r="D10" s="1">
-        <v>458.31195068359301</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>458.31195068359301</v>
+        <v>130.39689636230401</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>30.8</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>47</v>
+        <v>64.2</v>
       </c>
       <c r="D11" s="1">
-        <v>679.10797119140602</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>679.10797119140602</v>
+        <v>458.31195068359301</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>33.4</v>
+        <v>30.8</v>
       </c>
       <c r="C12" s="1">
-        <v>37.299999999999997</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
-        <v>852.468994140625</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>852.468994140625</v>
+        <v>679.10797119140602</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>34.9</v>
+        <v>33.4</v>
       </c>
       <c r="C13" s="1">
-        <v>29.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>450.84344482421801</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>450.84344482421801</v>
+        <v>852.468994140625</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
         <v>3</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>35.799999999999997</v>
+        <v>34.9</v>
       </c>
       <c r="C14" s="1">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="D14" s="1">
-        <v>788.75720214843705</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>788.75720214843705</v>
+        <v>450.84344482421801</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>36.200000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="D15" s="1">
-        <v>484.76858520507801</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>484.76858520507801</v>
+        <v>788.75720214843705</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>36.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>565.86218261718705</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>565.86218261718705</v>
+        <v>484.76858520507801</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>36.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>32.299999999999997</v>
+        <v>29.3</v>
       </c>
       <c r="D17" s="1">
-        <v>77.424179077148395</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>77.424179077148395</v>
+        <v>565.86218261718705</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>35.799999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="C18" s="1">
-        <v>38</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>100.798950195312</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>100.798950195312</v>
+        <v>77.424179077148395</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>34.200000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>44.6</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1">
-        <v>225.35009765625</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>225.35009765625</v>
+        <v>100.798950195312</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>32.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>42.3</v>
+        <v>44.6</v>
       </c>
       <c r="D20" s="1">
-        <v>287.22372436523398</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>287.22372436523398</v>
+        <v>225.35009765625</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>29.6</v>
+        <v>32.1</v>
       </c>
       <c r="C21" s="1">
-        <v>50.4</v>
+        <v>42.3</v>
       </c>
       <c r="D21" s="1">
-        <v>-109.32681274414</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>287.22372436523398</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>27.2</v>
+        <v>29.6</v>
       </c>
       <c r="C22" s="1">
-        <v>86.3</v>
+        <v>50.4</v>
       </c>
       <c r="D22" s="1">
-        <v>-90.037544250488196</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2.9</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="C23" s="1">
-        <v>84.6</v>
+        <v>86.3</v>
       </c>
       <c r="D23" s="1">
-        <v>-14.2687921524047</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>75%</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>5.6</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>26.2</v>
       </c>
       <c r="C24" s="1">
-        <v>76.5</v>
+        <v>84.6</v>
       </c>
       <c r="D24" s="1">
-        <v>55.235584259033203</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>55.235584259033203</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C25" s="1">
-        <v>79.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="D25" s="1">
-        <v>28.673753738403299</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>28.673753738403299</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C26" s="1">
-        <v>77.7</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.124297104775905</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="C27" s="1">
-        <v>75.599999999999994</v>
+        <v>77.7</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.46878266334533E-2</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>26.9</v>
       </c>
       <c r="C28" s="1">
-        <v>76</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D28" s="1">
-        <v>1.5948249101638701</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5948249101638701</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="C29" s="1">
-        <v>76.099999999999994</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1">
-        <v>7.3559503555297798</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3559503555297798</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>76</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D30" s="1">
-        <v>14.6473026275634</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="2"/>
-        <v>14.6473026275634</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>76.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1">
-        <v>25.78609085083</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="2"/>
-        <v>25.78609085083</v>
+        <v>14.6473026275634</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>29.2</v>
+        <v>26.8</v>
       </c>
       <c r="C32" s="1">
-        <v>67.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D32" s="1">
-        <v>79.767105102539006</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="2"/>
-        <v>79.767105102539006</v>
+        <v>25.78609085083</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="C33" s="1">
-        <v>66.400000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="D33" s="1">
-        <v>130.39689636230401</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>130.39689636230401</v>
+        <v>79.767105102539006</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>3.8</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>30.5</v>
+        <v>29.6</v>
       </c>
       <c r="C34" s="1">
-        <v>61.7</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D34" s="1">
-        <v>355.25256347656199</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>355.25256347656199</v>
+        <v>130.39689636230401</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>3.8</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>32.1</v>
+        <v>30.5</v>
       </c>
       <c r="C35" s="1">
-        <v>53.5</v>
+        <v>61.7</v>
       </c>
       <c r="D35" s="1">
-        <v>504.19250488281199</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="2"/>
-        <v>504.19250488281199</v>
+        <v>355.25256347656199</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>3.1</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>33.9</v>
+        <v>32.1</v>
       </c>
       <c r="C36" s="1">
-        <v>46.9</v>
+        <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <v>1056.568359375</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="2"/>
-        <v>1056.568359375</v>
+        <v>504.19250488281199</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2.1</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="C37" s="1">
-        <v>45.9</v>
+        <v>46.9</v>
       </c>
       <c r="D37" s="1">
-        <v>900.52764892578102</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="2"/>
-        <v>900.52764892578102</v>
+        <v>1056.568359375</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>32.799999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="C38" s="1">
-        <v>48.4</v>
+        <v>45.9</v>
       </c>
       <c r="D38" s="1">
-        <v>376.49002075195301</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="2"/>
-        <v>376.49002075195301</v>
+        <v>900.52764892578102</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="5"/>
         <v>3</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>33.4</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C39" s="1">
-        <v>45.1</v>
+        <v>48.4</v>
       </c>
       <c r="D39" s="1">
-        <v>792.302978515625</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="2"/>
-        <v>792.302978515625</v>
+        <v>376.49002075195301</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng gắt</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C40" s="1">
-        <v>51.4</v>
+        <v>45.1</v>
       </c>
       <c r="D40" s="1">
-        <v>306.37435913085898</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="2"/>
-        <v>306.37435913085898</v>
+        <v>792.302978515625</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng gắt</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="5"/>
         <v>3</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>32.1</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>50.9</v>
+        <v>51.4</v>
       </c>
       <c r="D41" s="1">
-        <v>447.403228759765</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="2"/>
-        <v>447.403228759765</v>
+        <v>306.37435913085898</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời nắng</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>2.1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>31.2</v>
+        <v>32.1</v>
       </c>
       <c r="C42" s="1">
-        <v>54.8</v>
+        <v>50.9</v>
       </c>
       <c r="D42" s="1">
-        <v>84.3935546875</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="2"/>
-        <v>84.3935546875</v>
+        <v>447.403228759765</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời nắng</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>2.1</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>29.9</v>
+        <v>31.2</v>
       </c>
       <c r="C43" s="1">
-        <v>57</v>
+        <v>54.8</v>
       </c>
       <c r="D43" s="1">
-        <v>102.3521194458</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="2"/>
-        <v>102.3521194458</v>
+        <v>84.3935546875</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C44" s="1">
-        <v>60.3</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
-        <v>116.616149902343</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="2"/>
-        <v>116.616149902343</v>
+        <v>102.3521194458</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>nắng nhẹ</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>3.2</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="C45" s="1">
-        <v>65.2</v>
+        <v>60.3</v>
       </c>
       <c r="D45" s="1">
-        <v>119.422950744628</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="2"/>
-        <v>119.422950744628</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>3.5</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>28.1</v>
+        <v>28.7</v>
       </c>
       <c r="C46" s="1">
-        <v>68.3</v>
+        <v>65.2</v>
       </c>
       <c r="D46" s="1">
-        <v>-160.73089599609301</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>3.8</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="C47" s="1">
-        <v>74.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="D47" s="1">
-        <v>-84.790351867675696</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>trời tối</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
+        <f t="shared" si="4"/>
+        <v>3.8</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>26.8</v>
+        <v>27.4</v>
       </c>
       <c r="C48" s="1">
-        <v>78.2</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D48" s="1">
-        <v>65.457710266113196</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="2"/>
-        <v>65.457710266113196</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
+        <f t="shared" si="1"/>
+        <v>100%</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3.5</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100%</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>26.3</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>80.5</v>
       </c>
-      <c r="D49" s="1">
-        <v>56.338962554931598</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="2"/>
-        <v>56.338962554931598</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>no</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>nắng nhẹ</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J49" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>no</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>trời tối</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100%</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
